--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,41 @@
         <v>163600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>92200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43514,6 +43514,41 @@
         <v>92200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>222000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>222000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>80200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>80200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>29600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>29600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1094500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>1094500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,41 @@
         <v>6400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>784900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43724,6 +43724,41 @@
         <v>784900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>55200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>55200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>22500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,41 @@
         <v>22500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>209100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,41 @@
         <v>209100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>75500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,76 @@
         <v>75500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>55198000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>35600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,76 @@
         <v>35600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>206800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,41 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44074,6 +44074,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>88000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44109,6 +44109,41 @@
         <v>88000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>72900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44144,6 +44144,41 @@
         <v>72900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>451100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44179,6 +44179,76 @@
         <v>451100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>86100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44249,6 +44249,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>28500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44284,6 +44284,41 @@
         <v>28500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>107700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1548"/>
+  <dimension ref="A1:I1549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55064,6 +55064,41 @@
         <v>107700</v>
       </c>
     </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1549" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>274700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1549"/>
+  <dimension ref="A1:I1550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55099,6 +55099,41 @@
         <v>274700</v>
       </c>
     </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1550" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>48300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1550"/>
+  <dimension ref="A1:I1551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55134,6 +55134,41 @@
         <v>48300</v>
       </c>
     </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1551" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1551"/>
+  <dimension ref="A1:I1552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55169,6 +55169,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1552" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>77200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1552"/>
+  <dimension ref="A1:I1553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55204,6 +55204,41 @@
         <v>77200</v>
       </c>
     </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1553" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>26600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1553"/>
+  <dimension ref="A1:I1554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55239,6 +55239,41 @@
         <v>26600</v>
       </c>
     </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1554" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>82100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1554"/>
+  <dimension ref="A1:I1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55274,6 +55274,41 @@
         <v>82100</v>
       </c>
     </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1555" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>58100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1555"/>
+  <dimension ref="A1:I1556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55309,6 +55309,41 @@
         <v>58100</v>
       </c>
     </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1556" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1556"/>
+  <dimension ref="A1:I1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55344,6 +55344,41 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1557" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>8300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1557"/>
+  <dimension ref="A1:I1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55379,6 +55379,41 @@
         <v>8300</v>
       </c>
     </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1558" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>16800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1558"/>
+  <dimension ref="A1:I1559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55414,6 +55414,41 @@
         <v>16800</v>
       </c>
     </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1559" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>26900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1559"/>
+  <dimension ref="A1:I1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55449,6 +55449,41 @@
         <v>26900</v>
       </c>
     </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>54300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1560"/>
+  <dimension ref="A1:I1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55484,6 +55484,41 @@
         <v>54300</v>
       </c>
     </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>44700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1561"/>
+  <dimension ref="A1:I1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55519,6 +55519,41 @@
         <v>44700</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1562"/>
+  <dimension ref="A1:I1563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55554,6 +55554,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1563"/>
+  <dimension ref="A1:I1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55589,6 +55589,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>33200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1564"/>
+  <dimension ref="A1:I1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55624,6 +55624,41 @@
         <v>33200</v>
       </c>
     </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1565"/>
+  <dimension ref="A1:I1566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55659,6 +55659,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>16500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1566"/>
+  <dimension ref="A1:I1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55694,6 +55694,41 @@
         <v>16500</v>
       </c>
     </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1567"/>
+  <dimension ref="A1:I1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55729,6 +55729,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>9300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1568"/>
+  <dimension ref="A1:I1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55764,6 +55764,41 @@
         <v>9300</v>
       </c>
     </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>44600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1569"/>
+  <dimension ref="A1:I1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55799,6 +55799,41 @@
         <v>44600</v>
       </c>
     </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>41700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1570"/>
+  <dimension ref="A1:I1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55834,6 +55834,41 @@
         <v>41700</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>79600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55869,6 +55869,41 @@
         <v>79600</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>44200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5245.xlsx
+++ b/data/5245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55904,6 +55904,41 @@
         <v>44200</v>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>CARING</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
